--- a/Lista vocabulario.xlsx
+++ b/Lista vocabulario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niños\Pablo Boronat\La Salle\10. 1ºESO\Deber y estudio\Inglés\App Vocabulary Pablo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA745C4-A2D5-47D3-9A00-0DC91F6F3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4BB1D-4F49-4818-A94E-8F16945C074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D3A4DA7-A6CB-463D-B382-D9CDF113DD1D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="375">
   <si>
     <t>School utensils – Útiles escolares</t>
   </si>
@@ -1009,6 +1009,159 @@
   </si>
   <si>
     <t>cinta adhesiva</t>
+  </si>
+  <si>
+    <t>tracksuit</t>
+  </si>
+  <si>
+    <t>trainers</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>fleece jacket</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>football boots</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>long sleeve</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>sweatshirt</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>jumper</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>leggings</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>squared</t>
+  </si>
+  <si>
+    <t>polo neck</t>
+  </si>
+  <si>
+    <t>waistcoat</t>
+  </si>
+  <si>
+    <t>chándal</t>
+  </si>
+  <si>
+    <t>zapatillas deporte</t>
+  </si>
+  <si>
+    <t>gafas</t>
+  </si>
+  <si>
+    <t>gorra</t>
+  </si>
+  <si>
+    <t>pantalones</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>camiseta manga corta</t>
+  </si>
+  <si>
+    <t>botas football</t>
+  </si>
+  <si>
+    <t>pantalones cortos</t>
+  </si>
+  <si>
+    <t>manga larga</t>
+  </si>
+  <si>
+    <t>cuello pico</t>
+  </si>
+  <si>
+    <t>sudadera</t>
+  </si>
+  <si>
+    <t>jersey</t>
+  </si>
+  <si>
+    <t>corbata</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>traje</t>
+  </si>
+  <si>
+    <t>Falda</t>
+  </si>
+  <si>
+    <t>zapatos</t>
+  </si>
+  <si>
+    <t>botas</t>
+  </si>
+  <si>
+    <t>uniforme</t>
+  </si>
+  <si>
+    <t>a cuadros</t>
+  </si>
+  <si>
+    <t>cuello alto</t>
+  </si>
+  <si>
+    <t>chaleco</t>
+  </si>
+  <si>
+    <t>Tema 7 - Clothes to describe - Ropa para describir</t>
+  </si>
+  <si>
+    <t>Clothes to describe - Ropa para describir</t>
   </si>
 </sst>
 </file>
@@ -1384,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D353246F-5827-4F05-83D3-00EF78CCBDB0}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3326,7 @@
         <v>197</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(E97," ","-"," ",F97)</f>
         <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
@@ -3797,7 +3950,7 @@
         <v>309</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H150" si="2">CONCATENATE(E131," ","-"," ",F131)</f>
+        <f t="shared" ref="H131:H151" si="2">CONCATENATE(E131," ","-"," ",F131)</f>
         <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
@@ -4153,6 +4306,374 @@
       <c r="H150" t="str">
         <f t="shared" si="2"/>
         <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>350</v>
+      </c>
+      <c r="E151" t="s">
+        <v>373</v>
+      </c>
+      <c r="F151" t="s">
+        <v>374</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" t="s">
+        <v>373</v>
+      </c>
+      <c r="F152" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" t="s">
+        <v>352</v>
+      </c>
+      <c r="E153" t="s">
+        <v>373</v>
+      </c>
+      <c r="F153" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" t="s">
+        <v>353</v>
+      </c>
+      <c r="E154" t="s">
+        <v>373</v>
+      </c>
+      <c r="F154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>328</v>
+      </c>
+      <c r="C155" t="s">
+        <v>354</v>
+      </c>
+      <c r="E155" t="s">
+        <v>373</v>
+      </c>
+      <c r="F155" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>329</v>
+      </c>
+      <c r="C156" t="s">
+        <v>355</v>
+      </c>
+      <c r="E156" t="s">
+        <v>373</v>
+      </c>
+      <c r="F156" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>330</v>
+      </c>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="E157" t="s">
+        <v>373</v>
+      </c>
+      <c r="F157" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" t="s">
+        <v>357</v>
+      </c>
+      <c r="E158" t="s">
+        <v>373</v>
+      </c>
+      <c r="F158" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>332</v>
+      </c>
+      <c r="C159" t="s">
+        <v>358</v>
+      </c>
+      <c r="E159" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" t="s">
+        <v>333</v>
+      </c>
+      <c r="E160" t="s">
+        <v>373</v>
+      </c>
+      <c r="F160" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>334</v>
+      </c>
+      <c r="C161" t="s">
+        <v>359</v>
+      </c>
+      <c r="E161" t="s">
+        <v>373</v>
+      </c>
+      <c r="F161" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="C162" t="s">
+        <v>360</v>
+      </c>
+      <c r="E162" t="s">
+        <v>373</v>
+      </c>
+      <c r="F162" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>336</v>
+      </c>
+      <c r="C163" t="s">
+        <v>361</v>
+      </c>
+      <c r="E163" t="s">
+        <v>373</v>
+      </c>
+      <c r="F163" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>362</v>
+      </c>
+      <c r="E164" t="s">
+        <v>373</v>
+      </c>
+      <c r="F164" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>338</v>
+      </c>
+      <c r="C165" t="s">
+        <v>362</v>
+      </c>
+      <c r="E165" t="s">
+        <v>373</v>
+      </c>
+      <c r="F165" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" t="s">
+        <v>363</v>
+      </c>
+      <c r="E166" t="s">
+        <v>373</v>
+      </c>
+      <c r="F166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" t="s">
+        <v>364</v>
+      </c>
+      <c r="E167" t="s">
+        <v>373</v>
+      </c>
+      <c r="F167" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>341</v>
+      </c>
+      <c r="C168" t="s">
+        <v>365</v>
+      </c>
+      <c r="E168" t="s">
+        <v>373</v>
+      </c>
+      <c r="F168" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>342</v>
+      </c>
+      <c r="C169" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" t="s">
+        <v>373</v>
+      </c>
+      <c r="F169" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>343</v>
+      </c>
+      <c r="C170" t="s">
+        <v>367</v>
+      </c>
+      <c r="E170" t="s">
+        <v>373</v>
+      </c>
+      <c r="F170" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" t="s">
+        <v>344</v>
+      </c>
+      <c r="E171" t="s">
+        <v>373</v>
+      </c>
+      <c r="F171" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" t="s">
+        <v>368</v>
+      </c>
+      <c r="E172" t="s">
+        <v>373</v>
+      </c>
+      <c r="F172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173" t="s">
+        <v>369</v>
+      </c>
+      <c r="E173" t="s">
+        <v>373</v>
+      </c>
+      <c r="F173" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>347</v>
+      </c>
+      <c r="C174" t="s">
+        <v>370</v>
+      </c>
+      <c r="E174" t="s">
+        <v>373</v>
+      </c>
+      <c r="F174" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
+        <v>371</v>
+      </c>
+      <c r="E175" t="s">
+        <v>373</v>
+      </c>
+      <c r="F175" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" t="s">
+        <v>372</v>
+      </c>
+      <c r="E176" t="s">
+        <v>373</v>
+      </c>
+      <c r="F176" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Lista vocabulario.xlsx
+++ b/Lista vocabulario.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niños\Pablo Boronat\La Salle\10. 1ºESO\Deber y estudio\Inglés\App Vocabulary Pablo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916AA84B-C2A6-4BD2-B4A7-7BA2EE0280E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE8A861-76FB-49EE-AC64-C860E07A8C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D3A4DA7-A6CB-463D-B382-D9CDF113DD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$150</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="633">
   <si>
     <t>School utensils – Útiles escolares</t>
   </si>
@@ -1699,6 +1700,243 @@
   </si>
   <si>
     <t>tomar</t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>Espacioso</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Cómodo</t>
+  </si>
+  <si>
+    <t>Cozy</t>
+  </si>
+  <si>
+    <t>Acogedor</t>
+  </si>
+  <si>
+    <t>Bright</t>
+  </si>
+  <si>
+    <t>Brillante / Luminoso</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Moderno</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Tradicional</t>
+  </si>
+  <si>
+    <t>Elegant</t>
+  </si>
+  <si>
+    <t>Elegante</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Sencillo</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>Tranquilo</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Ruidoso</t>
+  </si>
+  <si>
+    <t>Tidy</t>
+  </si>
+  <si>
+    <t>Ordenado</t>
+  </si>
+  <si>
+    <t>Messy</t>
+  </si>
+  <si>
+    <t>Desordenado</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Pequeño</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Limpio</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Oscuro</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Cálido</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Frío</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Viejo</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Suave</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Duro</t>
+  </si>
+  <si>
+    <t>Neat</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Ancho</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>Estrecho</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>Hermoso</t>
+  </si>
+  <si>
+    <t>Organised</t>
+  </si>
+  <si>
+    <t>Organizado</t>
+  </si>
+  <si>
+    <t>Colourful</t>
+  </si>
+  <si>
+    <t>Colorido</t>
+  </si>
+  <si>
+    <t>Attractive</t>
+  </si>
+  <si>
+    <t>Atractivo</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Pacífico</t>
+  </si>
+  <si>
+    <t>Decorative</t>
+  </si>
+  <si>
+    <t>Decorativo</t>
+  </si>
+  <si>
+    <t>Welcoming</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Conveniente</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Fantástico</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>Impresionante</t>
+  </si>
+  <si>
+    <t>Brightened</t>
+  </si>
+  <si>
+    <t>Iluminado</t>
+  </si>
+  <si>
+    <t>Appealing</t>
+  </si>
+  <si>
+    <t>Refreshing</t>
+  </si>
+  <si>
+    <t>Refrescante</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Maravilloso</t>
+  </si>
+  <si>
+    <t>Artistic</t>
+  </si>
+  <si>
+    <t>Artístico</t>
+  </si>
+  <si>
+    <t>Adjectives 2 - Adjectives to describe</t>
+  </si>
+  <si>
+    <t>Tema 10 - Adjectives 2 - Adjectives to describe</t>
   </si>
 </sst>
 </file>
@@ -2074,11 +2312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D353246F-5827-4F05-83D3-00EF78CCBDB0}">
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F265" sqref="F265"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267:E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6725,7 +6963,7 @@
         <v>472</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" ref="H259:H266" si="4">CONCATENATE(E259," ","-"," ",F259)</f>
+        <f t="shared" ref="H259:H267" si="4">CONCATENATE(E259," ","-"," ",F259)</f>
         <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
       </c>
     </row>
@@ -6832,6 +7070,453 @@
       <c r="H266" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>554</v>
+      </c>
+      <c r="C267" t="s">
+        <v>555</v>
+      </c>
+      <c r="E267" t="s">
+        <v>632</v>
+      </c>
+      <c r="F267" t="s">
+        <v>631</v>
+      </c>
+      <c r="H267" t="str">
+        <f t="shared" si="4"/>
+        <v>Tema 10 - Adjectives 2 - Adjectives to describe - Adjectives 2 - Adjectives to describe</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>556</v>
+      </c>
+      <c r="C268" t="s">
+        <v>557</v>
+      </c>
+      <c r="E268" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>558</v>
+      </c>
+      <c r="C269" t="s">
+        <v>559</v>
+      </c>
+      <c r="E269" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>560</v>
+      </c>
+      <c r="C270" t="s">
+        <v>561</v>
+      </c>
+      <c r="E270" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>562</v>
+      </c>
+      <c r="C271" t="s">
+        <v>563</v>
+      </c>
+      <c r="E271" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>564</v>
+      </c>
+      <c r="C272" t="s">
+        <v>565</v>
+      </c>
+      <c r="E272" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>566</v>
+      </c>
+      <c r="C273" t="s">
+        <v>567</v>
+      </c>
+      <c r="E273" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>568</v>
+      </c>
+      <c r="C274" t="s">
+        <v>569</v>
+      </c>
+      <c r="E274" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>570</v>
+      </c>
+      <c r="C275" t="s">
+        <v>571</v>
+      </c>
+      <c r="E275" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>572</v>
+      </c>
+      <c r="C276" t="s">
+        <v>573</v>
+      </c>
+      <c r="E276" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>574</v>
+      </c>
+      <c r="C277" t="s">
+        <v>575</v>
+      </c>
+      <c r="E277" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>576</v>
+      </c>
+      <c r="C278" t="s">
+        <v>577</v>
+      </c>
+      <c r="E278" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>578</v>
+      </c>
+      <c r="C279" t="s">
+        <v>579</v>
+      </c>
+      <c r="E279" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>580</v>
+      </c>
+      <c r="C280" t="s">
+        <v>581</v>
+      </c>
+      <c r="E280" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>582</v>
+      </c>
+      <c r="C281" t="s">
+        <v>583</v>
+      </c>
+      <c r="E281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>584</v>
+      </c>
+      <c r="C282" t="s">
+        <v>585</v>
+      </c>
+      <c r="E282" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>586</v>
+      </c>
+      <c r="C283" t="s">
+        <v>587</v>
+      </c>
+      <c r="E283" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>588</v>
+      </c>
+      <c r="C284" t="s">
+        <v>589</v>
+      </c>
+      <c r="E284" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>590</v>
+      </c>
+      <c r="C285" t="s">
+        <v>591</v>
+      </c>
+      <c r="E285" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>592</v>
+      </c>
+      <c r="C286" t="s">
+        <v>593</v>
+      </c>
+      <c r="E286" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>594</v>
+      </c>
+      <c r="C287" t="s">
+        <v>595</v>
+      </c>
+      <c r="E287" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>596</v>
+      </c>
+      <c r="C288" t="s">
+        <v>597</v>
+      </c>
+      <c r="E288" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>598</v>
+      </c>
+      <c r="C289" t="s">
+        <v>575</v>
+      </c>
+      <c r="E289" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>599</v>
+      </c>
+      <c r="C290" t="s">
+        <v>600</v>
+      </c>
+      <c r="E290" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>601</v>
+      </c>
+      <c r="C291" t="s">
+        <v>602</v>
+      </c>
+      <c r="E291" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>603</v>
+      </c>
+      <c r="C292" t="s">
+        <v>604</v>
+      </c>
+      <c r="E292" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>605</v>
+      </c>
+      <c r="C293" t="s">
+        <v>606</v>
+      </c>
+      <c r="E293" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>607</v>
+      </c>
+      <c r="C294" t="s">
+        <v>608</v>
+      </c>
+      <c r="E294" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>609</v>
+      </c>
+      <c r="C295" t="s">
+        <v>610</v>
+      </c>
+      <c r="E295" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>611</v>
+      </c>
+      <c r="C296" t="s">
+        <v>612</v>
+      </c>
+      <c r="E296" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>613</v>
+      </c>
+      <c r="C297" t="s">
+        <v>614</v>
+      </c>
+      <c r="E297" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>615</v>
+      </c>
+      <c r="C298" t="s">
+        <v>559</v>
+      </c>
+      <c r="E298" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>616</v>
+      </c>
+      <c r="C299" t="s">
+        <v>617</v>
+      </c>
+      <c r="E299" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>618</v>
+      </c>
+      <c r="C300" t="s">
+        <v>619</v>
+      </c>
+      <c r="E300" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>620</v>
+      </c>
+      <c r="C301" t="s">
+        <v>621</v>
+      </c>
+      <c r="E301" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>622</v>
+      </c>
+      <c r="C302" t="s">
+        <v>623</v>
+      </c>
+      <c r="E302" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>624</v>
+      </c>
+      <c r="C303" t="s">
+        <v>610</v>
+      </c>
+      <c r="E303" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>625</v>
+      </c>
+      <c r="C304" t="s">
+        <v>626</v>
+      </c>
+      <c r="E304" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>627</v>
+      </c>
+      <c r="C305" t="s">
+        <v>628</v>
+      </c>
+      <c r="E305" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>629</v>
+      </c>
+      <c r="C306" t="s">
+        <v>630</v>
+      </c>
+      <c r="E306" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6839,4 +7524,347 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E885A4C4-A870-4A41-BC3E-35E4683BE640}">
+  <dimension ref="E6:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>566</v>
+      </c>
+      <c r="F13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>568</v>
+      </c>
+      <c r="F14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>572</v>
+      </c>
+      <c r="F16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>574</v>
+      </c>
+      <c r="F17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>576</v>
+      </c>
+      <c r="F18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>578</v>
+      </c>
+      <c r="F19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>580</v>
+      </c>
+      <c r="F20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>582</v>
+      </c>
+      <c r="F21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>584</v>
+      </c>
+      <c r="F22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>586</v>
+      </c>
+      <c r="F23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>588</v>
+      </c>
+      <c r="F24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>594</v>
+      </c>
+      <c r="F27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>596</v>
+      </c>
+      <c r="F28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>598</v>
+      </c>
+      <c r="F29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>599</v>
+      </c>
+      <c r="F30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>601</v>
+      </c>
+      <c r="F31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>603</v>
+      </c>
+      <c r="F32" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>607</v>
+      </c>
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>609</v>
+      </c>
+      <c r="F35" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>611</v>
+      </c>
+      <c r="F36" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>613</v>
+      </c>
+      <c r="F37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>615</v>
+      </c>
+      <c r="F38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>616</v>
+      </c>
+      <c r="F39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>618</v>
+      </c>
+      <c r="F40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>620</v>
+      </c>
+      <c r="F41" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>622</v>
+      </c>
+      <c r="F42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>624</v>
+      </c>
+      <c r="F43" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>625</v>
+      </c>
+      <c r="F44" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>627</v>
+      </c>
+      <c r="F45" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>629</v>
+      </c>
+      <c r="F46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lista vocabulario.xlsx
+++ b/Lista vocabulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Niños\Pablo Boronat\La Salle\10. 1ºESO\Deber y estudio\Inglés\App Vocabulary Pablo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE8A861-76FB-49EE-AC64-C860E07A8C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D1C4D-68E0-451A-BFE9-893D0DC5FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D3A4DA7-A6CB-463D-B382-D9CDF113DD1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="674">
   <si>
     <t>School utensils – Útiles escolares</t>
   </si>
@@ -973,24 +973,6 @@
     <t>Sinónimo inglés</t>
   </si>
   <si>
-    <t>Tema 1 - School utensils – Útiles escolares</t>
-  </si>
-  <si>
-    <t>Tema 2 - Areas of school – Áreas del colegio</t>
-  </si>
-  <si>
-    <t>Tema 3 - Subjects – Asignaturas</t>
-  </si>
-  <si>
-    <t>Tema 4 - Space - Espacio</t>
-  </si>
-  <si>
-    <t>Tema 5 - Parts of the body - Partes del cuerpo</t>
-  </si>
-  <si>
-    <t>Tema 6 - Adjectives 1 - Adjetivos 1</t>
-  </si>
-  <si>
     <t>goma de borrar</t>
   </si>
   <si>
@@ -1153,9 +1135,6 @@
     <t>chaleco</t>
   </si>
   <si>
-    <t>Tema 7 - Clothes to describe - Ropa para describir</t>
-  </si>
-  <si>
     <t>Clothes to describe - Ropa para describir</t>
   </si>
   <si>
@@ -1450,15 +1429,9 @@
     <t>Animals - Animales</t>
   </si>
   <si>
-    <t>Tema 8 - Animals - Animales</t>
-  </si>
-  <si>
     <t>sloth</t>
   </si>
   <si>
-    <t>Tema 9 - Verbs - Verbos</t>
-  </si>
-  <si>
     <t>to play</t>
   </si>
   <si>
@@ -1937,6 +1910,156 @@
   </si>
   <si>
     <t>Tema 10 - Adjectives 2 - Adjectives to describe</t>
+  </si>
+  <si>
+    <t>Tema 01 - School utensils – Útiles escolares</t>
+  </si>
+  <si>
+    <t>Tema 02 - Areas of school – Áreas del colegio</t>
+  </si>
+  <si>
+    <t>Tema 03 - Subjects – Asignaturas</t>
+  </si>
+  <si>
+    <t>Tema 04 - Space - Espacio</t>
+  </si>
+  <si>
+    <t>Tema 05 - Parts of the body - Partes del cuerpo</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 1</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 2</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 3</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 4</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 5</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 6</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 7</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 8</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 9</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 10</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 11</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 12</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 13</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 14</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 15</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 16</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 17</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 18</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 19</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 20</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 21</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 22</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 23</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 24</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 25</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 26</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 27</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 28</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 29</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 30</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 31</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 32</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 33</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 34</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 35</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 36</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 37</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 38</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 39</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 40</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 41</t>
+  </si>
+  <si>
+    <t>Tema 06 - Adjectives 1 - Adjetivos 42</t>
+  </si>
+  <si>
+    <t>Tema 07 - Clothes to describe - Ropa para describir</t>
+  </si>
+  <si>
+    <t>Tema 08 - Animals - Animales</t>
+  </si>
+  <si>
+    <t>Tema 09 - Verbs - Verbos</t>
   </si>
 </sst>
 </file>
@@ -2315,8 +2438,8 @@
   <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E267" sqref="E267:E306"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,14 +2481,14 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(E2," ","-"," ",F2)</f>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2376,14 +2499,14 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE(E3," ","-"," ",F3)</f>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2391,17 +2514,17 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2412,14 +2535,14 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2430,14 +2553,14 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2448,14 +2571,14 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2466,14 +2589,14 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2487,14 +2610,14 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2508,14 +2631,14 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2529,14 +2652,14 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2547,14 +2670,14 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2568,14 +2691,14 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2586,14 +2709,14 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2604,14 +2727,14 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2622,14 +2745,14 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,14 +2763,14 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2658,14 +2781,14 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,14 +2799,14 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2694,14 +2817,14 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2709,20 +2832,20 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 1 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
+        <v>Tema 01 - School utensils – Útiles escolares - School utensils – Útiles escolares</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2733,14 +2856,14 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2751,14 +2874,14 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,14 +2895,14 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2790,14 +2913,14 @@
         <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2808,14 +2931,14 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,14 +2949,14 @@
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2844,14 +2967,14 @@
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2865,14 +2988,14 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2883,14 +3006,14 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 2 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
+        <v>Tema 02 - Areas of school – Áreas del colegio - Areas of school – Áreas del colegio</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2901,14 +3024,14 @@
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F31" t="s">
         <v>70</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2919,14 +3042,14 @@
         <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2937,14 +3060,14 @@
         <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F33" t="s">
         <v>70</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2958,14 +3081,14 @@
         <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F34" t="s">
         <v>70</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2976,14 +3099,14 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2997,14 +3120,14 @@
         <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F36" t="s">
         <v>70</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3015,14 +3138,14 @@
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3033,14 +3156,14 @@
         <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3051,14 +3174,14 @@
         <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F39" t="s">
         <v>70</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3069,14 +3192,14 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F40" t="s">
         <v>70</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3087,14 +3210,14 @@
         <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F41" t="s">
         <v>70</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3105,14 +3228,14 @@
         <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F42" t="s">
         <v>70</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3123,14 +3246,14 @@
         <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F43" t="s">
         <v>70</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3141,14 +3264,14 @@
         <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="F44" t="s">
         <v>70</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 3 - Subjects – Asignaturas - Subjects – Asignaturas</v>
+        <v>Tema 03 - Subjects – Asignaturas - Subjects – Asignaturas</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3159,14 +3282,14 @@
         <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F45" t="s">
         <v>146</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3177,14 +3300,14 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F46" t="s">
         <v>146</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3195,14 +3318,14 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F47" t="s">
         <v>146</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3213,14 +3336,14 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F48" t="s">
         <v>146</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3231,14 +3354,14 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F49" t="s">
         <v>146</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3249,14 +3372,14 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F50" t="s">
         <v>146</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3267,14 +3390,14 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F51" t="s">
         <v>146</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3285,14 +3408,14 @@
         <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F52" t="s">
         <v>146</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3303,14 +3426,14 @@
         <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F53" t="s">
         <v>146</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3321,14 +3444,14 @@
         <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F54" t="s">
         <v>146</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3339,14 +3462,14 @@
         <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F55" t="s">
         <v>146</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3357,14 +3480,14 @@
         <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F56" t="s">
         <v>146</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3375,14 +3498,14 @@
         <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F57" t="s">
         <v>146</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3393,14 +3516,14 @@
         <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F58" t="s">
         <v>146</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3411,14 +3534,14 @@
         <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F59" t="s">
         <v>146</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3429,14 +3552,14 @@
         <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F60" t="s">
         <v>146</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3447,14 +3570,14 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F61" t="s">
         <v>146</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3462,17 +3585,17 @@
         <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F62" t="s">
         <v>146</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3483,14 +3606,14 @@
         <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F63" t="s">
         <v>146</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3501,14 +3624,14 @@
         <v>128</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F64" t="s">
         <v>146</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3519,14 +3642,14 @@
         <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F65" t="s">
         <v>146</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3537,14 +3660,14 @@
         <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F66" t="s">
         <v>146</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3555,14 +3678,14 @@
         <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F67" t="s">
         <v>146</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="1">CONCATENATE(E67," ","-"," ",F67)</f>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3570,17 +3693,17 @@
         <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F68" t="s">
         <v>146</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3591,14 +3714,14 @@
         <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F69" t="s">
         <v>146</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3609,14 +3732,14 @@
         <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F70" t="s">
         <v>146</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3627,14 +3750,14 @@
         <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F71" t="s">
         <v>146</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3645,14 +3768,14 @@
         <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F72" t="s">
         <v>146</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3663,14 +3786,14 @@
         <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F73" t="s">
         <v>146</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3681,14 +3804,14 @@
         <v>160</v>
       </c>
       <c r="E74" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F74" t="s">
         <v>146</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3699,14 +3822,14 @@
         <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3717,14 +3840,14 @@
         <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F76" t="s">
         <v>146</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3735,14 +3858,14 @@
         <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F77" t="s">
         <v>146</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3753,14 +3876,14 @@
         <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="F78" t="s">
         <v>146</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 4 - Space - Espacio - Space - Espacio</v>
+        <v>Tema 04 - Space - Espacio - Space - Espacio</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3771,14 +3894,14 @@
         <v>198</v>
       </c>
       <c r="E79" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F79" t="s">
         <v>197</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3789,14 +3912,14 @@
         <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F80" t="s">
         <v>197</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3807,14 +3930,14 @@
         <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F81" t="s">
         <v>197</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3825,14 +3948,14 @@
         <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F82" t="s">
         <v>197</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3843,14 +3966,14 @@
         <v>171</v>
       </c>
       <c r="E83" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F83" t="s">
         <v>197</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3861,14 +3984,14 @@
         <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F84" t="s">
         <v>197</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3879,14 +4002,14 @@
         <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F85" t="s">
         <v>197</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3897,14 +4020,14 @@
         <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F86" t="s">
         <v>197</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3915,14 +4038,14 @@
         <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F87" t="s">
         <v>197</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3933,14 +4056,14 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F88" t="s">
         <v>197</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3951,14 +4074,14 @@
         <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F89" t="s">
         <v>197</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3969,14 +4092,14 @@
         <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F90" t="s">
         <v>197</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3987,14 +4110,14 @@
         <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F91" t="s">
         <v>197</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4005,14 +4128,14 @@
         <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F92" t="s">
         <v>197</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4023,14 +4146,14 @@
         <v>226</v>
       </c>
       <c r="E93" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F93" t="s">
         <v>197</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4041,14 +4164,14 @@
         <v>211</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F94" t="s">
         <v>197</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4059,14 +4182,14 @@
         <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F95" t="s">
         <v>197</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4077,14 +4200,14 @@
         <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F96" t="s">
         <v>197</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4095,14 +4218,14 @@
         <v>214</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F97" t="s">
         <v>197</v>
       </c>
       <c r="H97" t="str">
         <f>CONCATENATE(E97," ","-"," ",F97)</f>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4113,14 +4236,14 @@
         <v>215</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F98" t="s">
         <v>197</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4131,14 +4254,14 @@
         <v>216</v>
       </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F99" t="s">
         <v>197</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4149,14 +4272,14 @@
         <v>217</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F100" t="s">
         <v>197</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4167,14 +4290,14 @@
         <v>218</v>
       </c>
       <c r="E101" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F101" t="s">
         <v>197</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -4185,14 +4308,14 @@
         <v>219</v>
       </c>
       <c r="E102" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F102" t="s">
         <v>197</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4203,14 +4326,14 @@
         <v>220</v>
       </c>
       <c r="E103" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F103" t="s">
         <v>197</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4221,14 +4344,14 @@
         <v>225</v>
       </c>
       <c r="E104" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F104" t="s">
         <v>197</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -4239,14 +4362,14 @@
         <v>221</v>
       </c>
       <c r="E105" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F105" t="s">
         <v>197</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -4257,14 +4380,14 @@
         <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -4275,14 +4398,14 @@
         <v>222</v>
       </c>
       <c r="E107" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F107" t="s">
         <v>197</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -4293,14 +4416,14 @@
         <v>223</v>
       </c>
       <c r="E108" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
       <c r="F108" t="s">
         <v>197</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 5 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
+        <v>Tema 05 - Parts of the body - Partes del cuerpo - Parts of the body - Partes del cuerpo</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -4311,14 +4434,14 @@
         <v>269</v>
       </c>
       <c r="E109" t="s">
-        <v>316</v>
+        <v>629</v>
       </c>
       <c r="F109" t="s">
         <v>309</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -4329,14 +4452,14 @@
         <v>270</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>630</v>
       </c>
       <c r="F110" t="s">
         <v>309</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 2 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -4347,14 +4470,14 @@
         <v>271</v>
       </c>
       <c r="E111" t="s">
-        <v>316</v>
+        <v>631</v>
       </c>
       <c r="F111" t="s">
         <v>309</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 3 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -4365,14 +4488,14 @@
         <v>272</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>632</v>
       </c>
       <c r="F112" t="s">
         <v>309</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 4 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -4383,14 +4506,14 @@
         <v>273</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="F113" t="s">
         <v>309</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 5 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -4401,14 +4524,14 @@
         <v>274</v>
       </c>
       <c r="E114" t="s">
-        <v>316</v>
+        <v>634</v>
       </c>
       <c r="F114" t="s">
         <v>309</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 6 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -4419,14 +4542,14 @@
         <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>635</v>
       </c>
       <c r="F115" t="s">
         <v>309</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 7 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -4437,14 +4560,14 @@
         <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>636</v>
       </c>
       <c r="F116" t="s">
         <v>309</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 8 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -4455,14 +4578,14 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>637</v>
       </c>
       <c r="F117" t="s">
         <v>309</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 9 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4476,14 +4599,14 @@
         <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>638</v>
       </c>
       <c r="F118" t="s">
         <v>309</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 10 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -4494,14 +4617,14 @@
         <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="F119" t="s">
         <v>309</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 11 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -4512,14 +4635,14 @@
         <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>640</v>
       </c>
       <c r="F120" t="s">
         <v>309</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 12 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4530,14 +4653,14 @@
         <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
+        <v>641</v>
       </c>
       <c r="F121" t="s">
         <v>309</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 13 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -4548,14 +4671,14 @@
         <v>306</v>
       </c>
       <c r="E122" t="s">
-        <v>316</v>
+        <v>642</v>
       </c>
       <c r="F122" t="s">
         <v>309</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 14 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4566,14 +4689,14 @@
         <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>316</v>
+        <v>643</v>
       </c>
       <c r="F123" t="s">
         <v>309</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 15 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4584,14 +4707,14 @@
         <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>316</v>
+        <v>644</v>
       </c>
       <c r="F124" t="s">
         <v>309</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 16 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4602,14 +4725,14 @@
         <v>284</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
+        <v>645</v>
       </c>
       <c r="F125" t="s">
         <v>309</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 17 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4620,14 +4743,14 @@
         <v>285</v>
       </c>
       <c r="E126" t="s">
-        <v>316</v>
+        <v>646</v>
       </c>
       <c r="F126" t="s">
         <v>309</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 18 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -4638,14 +4761,14 @@
         <v>286</v>
       </c>
       <c r="E127" t="s">
-        <v>316</v>
+        <v>647</v>
       </c>
       <c r="F127" t="s">
         <v>309</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 19 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4656,14 +4779,14 @@
         <v>287</v>
       </c>
       <c r="E128" t="s">
-        <v>316</v>
+        <v>648</v>
       </c>
       <c r="F128" t="s">
         <v>309</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 20 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -4680,14 +4803,14 @@
         <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>316</v>
+        <v>649</v>
       </c>
       <c r="F129" t="s">
         <v>309</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 21 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -4695,20 +4818,20 @@
         <v>248</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s">
         <v>289</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>650</v>
       </c>
       <c r="F130" t="s">
         <v>309</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 22 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -4719,14 +4842,14 @@
         <v>290</v>
       </c>
       <c r="E131" t="s">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="F131" t="s">
         <v>309</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H194" si="2">CONCATENATE(E131," ","-"," ",F131)</f>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 23 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4740,14 +4863,14 @@
         <v>308</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>652</v>
       </c>
       <c r="F132" t="s">
         <v>309</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 24 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4758,14 +4881,14 @@
         <v>292</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>653</v>
       </c>
       <c r="F133" t="s">
         <v>309</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 25 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4776,14 +4899,14 @@
         <v>291</v>
       </c>
       <c r="E134" t="s">
-        <v>316</v>
+        <v>654</v>
       </c>
       <c r="F134" t="s">
         <v>309</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 26 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4797,14 +4920,14 @@
         <v>278</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>655</v>
       </c>
       <c r="F135" t="s">
         <v>309</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 27 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4815,14 +4938,14 @@
         <v>293</v>
       </c>
       <c r="E136" t="s">
-        <v>316</v>
+        <v>656</v>
       </c>
       <c r="F136" t="s">
         <v>309</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 28 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4833,14 +4956,14 @@
         <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>316</v>
+        <v>657</v>
       </c>
       <c r="F137" t="s">
         <v>309</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 29 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4851,14 +4974,14 @@
         <v>295</v>
       </c>
       <c r="E138" t="s">
-        <v>316</v>
+        <v>658</v>
       </c>
       <c r="F138" t="s">
         <v>309</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 30 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4869,14 +4992,14 @@
         <v>296</v>
       </c>
       <c r="E139" t="s">
-        <v>316</v>
+        <v>659</v>
       </c>
       <c r="F139" t="s">
         <v>309</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 31 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4887,14 +5010,14 @@
         <v>297</v>
       </c>
       <c r="E140" t="s">
-        <v>316</v>
+        <v>660</v>
       </c>
       <c r="F140" t="s">
         <v>309</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 32 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4905,14 +5028,14 @@
         <v>298</v>
       </c>
       <c r="E141" t="s">
-        <v>316</v>
+        <v>661</v>
       </c>
       <c r="F141" t="s">
         <v>309</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 33 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4923,14 +5046,14 @@
         <v>299</v>
       </c>
       <c r="E142" t="s">
-        <v>316</v>
+        <v>662</v>
       </c>
       <c r="F142" t="s">
         <v>309</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 34 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4938,20 +5061,20 @@
         <v>261</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
         <v>289</v>
       </c>
       <c r="E143" t="s">
-        <v>316</v>
+        <v>663</v>
       </c>
       <c r="F143" t="s">
         <v>309</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 35 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4962,14 +5085,14 @@
         <v>300</v>
       </c>
       <c r="E144" t="s">
-        <v>316</v>
+        <v>664</v>
       </c>
       <c r="F144" t="s">
         <v>309</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 36 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4980,14 +5103,14 @@
         <v>301</v>
       </c>
       <c r="E145" t="s">
-        <v>316</v>
+        <v>665</v>
       </c>
       <c r="F145" t="s">
         <v>309</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 37 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4995,20 +5118,20 @@
         <v>264</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C146" t="s">
         <v>289</v>
       </c>
       <c r="E146" t="s">
-        <v>316</v>
+        <v>666</v>
       </c>
       <c r="F146" t="s">
         <v>309</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 38 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5019,14 +5142,14 @@
         <v>302</v>
       </c>
       <c r="E147" t="s">
-        <v>316</v>
+        <v>667</v>
       </c>
       <c r="F147" t="s">
         <v>309</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 39 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -5037,14 +5160,14 @@
         <v>303</v>
       </c>
       <c r="E148" t="s">
-        <v>316</v>
+        <v>668</v>
       </c>
       <c r="F148" t="s">
         <v>309</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 40 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5055,14 +5178,14 @@
         <v>304</v>
       </c>
       <c r="E149" t="s">
-        <v>316</v>
+        <v>669</v>
       </c>
       <c r="F149" t="s">
         <v>309</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 41 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5073,2017 +5196,2017 @@
         <v>305</v>
       </c>
       <c r="E150" t="s">
-        <v>316</v>
+        <v>670</v>
       </c>
       <c r="F150" t="s">
         <v>309</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 6 - Adjectives 1 - Adjetivos 1 - Adjectives 1 - Adjetivos 1</v>
+        <v>Tema 06 - Adjectives 1 - Adjetivos 42 - Adjectives 1 - Adjetivos 1</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E151" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F151" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E152" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F152" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C153" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E153" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F153" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C154" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E154" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F154" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B155" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E155" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F155" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C156" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E156" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F156" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E157" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F157" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E158" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F158" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E159" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F159" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C160" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E160" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F160" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C161" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E161" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F161" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B162" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C162" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D162" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E162" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F162" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C163" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E163" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B164" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C164" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E164" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F164" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B165" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C165" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E165" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C166" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E166" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F166" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E167" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F167" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E168" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F168" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E169" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F169" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C170" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" t="s">
+        <v>671</v>
+      </c>
+      <c r="F170" t="s">
         <v>365</v>
-      </c>
-      <c r="E170" t="s">
-        <v>371</v>
-      </c>
-      <c r="F170" t="s">
-        <v>372</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E171" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F171" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C172" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E172" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F172" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C173" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E173" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F173" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C174" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E174" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F174" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E175" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F175" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C176" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E176" t="s">
-        <v>371</v>
+        <v>671</v>
       </c>
       <c r="F176" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 7 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
+        <v>Tema 07 - Clothes to describe - Ropa para describir - Clothes to describe - Ropa para describir</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C177" t="s">
         <v>293</v>
       </c>
       <c r="E177" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F177" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C178" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E178" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F178" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E179" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F179" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E180" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F180" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C181" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E181" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F181" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C182" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E182" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F182" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C183" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E183" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F183" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E184" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F184" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E185" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F185" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C186" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E186" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F186" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C187" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E187" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F187" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E188" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F188" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E189" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F189" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C190" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E190" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F190" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C191" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E191" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F191" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C192" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E192" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F192" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E193" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F193" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C194" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E194" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F194" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="2"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E195" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F195" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" ref="H195:H258" si="3">CONCATENATE(E195," ","-"," ",F195)</f>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C196" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E196" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F196" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C197" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E197" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F197" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E198" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F198" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E199" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F199" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C200" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F200" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E201" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F201" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C202" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E202" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F202" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C203" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E203" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F203" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C204" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E204" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F204" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C205" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E205" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F205" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C206" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E206" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F206" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C207" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E207" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F207" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H207" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E208" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F208" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H208" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E209" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F209" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H209" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C210" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E210" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F210" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H210" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C211" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E211" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F211" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H211" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C212" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E212" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F212" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H212" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E213" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F213" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H213" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C214" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E214" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F214" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H214" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E215" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F215" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H215" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E216" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F216" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H216" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C217" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E217" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F217" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E218" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F218" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E219" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F219" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>455</v>
+      </c>
+      <c r="C220" t="s">
+        <v>411</v>
+      </c>
+      <c r="E220" t="s">
+        <v>672</v>
+      </c>
+      <c r="F220" t="s">
         <v>462</v>
-      </c>
-      <c r="C220" t="s">
-        <v>418</v>
-      </c>
-      <c r="E220" t="s">
-        <v>470</v>
-      </c>
-      <c r="F220" t="s">
-        <v>469</v>
       </c>
       <c r="H220" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C221" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E221" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F221" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H221" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C222" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E222" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F222" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H222" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C223" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E223" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F223" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C224" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E224" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F224" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C225" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E225" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F225" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C226" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E226" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="F226" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="3"/>
-        <v>Tema 8 - Animals - Animales - Animals - Animales</v>
+        <v>Tema 08 - Animals - Animales - Animals - Animales</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C227" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E227" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C228" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E228" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H228" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C229" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E229" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H229" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C230" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E230" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H230" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C231" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E231" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H231" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C232" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E232" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H232" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C233" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E233" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H233" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C234" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E234" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H234" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C235" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E235" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H235" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C236" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E236" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H236" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C237" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E237" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H237" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C238" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E238" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H238" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C239" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E239" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H239" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C240" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E240" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C241" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E241" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C242" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="E242" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C243" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E243" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C244" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E244" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C245" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E245" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C246" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="E246" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C247" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E247" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C248" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D248" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E248" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C249" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E249" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C250" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E250" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C251" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E251" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C252" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E252" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C253" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D253" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E253" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C254" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E254" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C255" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E255" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C256" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E256" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C257" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E257" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C258" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E258" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C259" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E259" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H259" t="str">
         <f t="shared" ref="H259:H267" si="4">CONCATENATE(E259," ","-"," ",F259)</f>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C260" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E260" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H260" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C261" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E261" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H261" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C262" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="E262" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H262" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C263" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E263" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H263" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C264" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E264" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H264" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C265" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E265" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H265" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C266" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E266" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="H266" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">Tema 9 - Verbs - Verbos - </v>
+        <v xml:space="preserve">Tema 09 - Verbs - Verbos - </v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C267" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E267" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F267" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H267" t="str">
         <f t="shared" si="4"/>
@@ -7092,431 +7215,431 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C268" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E268" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C269" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E269" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C270" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E270" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C271" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E271" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C272" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E272" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C273" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E273" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C274" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E274" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C275" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E275" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C276" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E276" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C277" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E277" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C278" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E278" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C279" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E279" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C280" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C281" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E281" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C282" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E282" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C283" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E283" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C284" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="E284" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C285" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E285" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C286" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E286" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C287" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E287" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C288" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="E288" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C289" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E289" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C290" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E290" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C291" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E291" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C292" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="E292" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C293" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="E293" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C294" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="E294" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C295" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E295" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C296" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="E296" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C297" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="E297" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C298" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E298" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C299" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="E299" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C300" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E300" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C301" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E301" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C302" t="s">
+        <v>614</v>
+      </c>
+      <c r="E302" t="s">
         <v>623</v>
-      </c>
-      <c r="E302" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C303" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E303" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C304" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E304" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C305" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="E305" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C306" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E306" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -7546,322 +7669,322 @@
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F8" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F9" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F13" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F14" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F15" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F18" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F19" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F20" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F21" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F22" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F23" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F24" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F25" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F26" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F27" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F28" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F29" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F30" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F31" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F32" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F33" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F35" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F36" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F38" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F40" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F41" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F42" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F43" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F44" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F45" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F46" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
